--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/57.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/57.xlsx
@@ -479,13 +479,13 @@
         <v>-4.25632080893882</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.634546637894376</v>
+        <v>-8.730722694569696</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.066429516216805</v>
+        <v>-3.048781091986158</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.442171882179259</v>
+        <v>-5.455238000415301</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.152664128588046</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.879425070246022</v>
+        <v>-8.983927831528678</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.161649834784678</v>
+        <v>-3.137559997555903</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.370452247212284</v>
+        <v>-5.389174240275952</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.114211577947905</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.698479536024404</v>
+        <v>-9.80001034456199</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.045521108578568</v>
+        <v>-3.019153210655332</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.244857786051606</v>
+        <v>-5.25915458075477</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.322524223315588</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.46716791277067</v>
+        <v>-10.56492813808983</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.949489067234508</v>
+        <v>-2.926996490952422</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.451794724767928</v>
+        <v>-5.471249886790733</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.7638247688012174</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.24651342403009</v>
+        <v>-11.34420818783505</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.797421969727859</v>
+        <v>-2.777547854014119</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.004941336476975</v>
+        <v>-5.024383406196939</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4582602372580757</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.90788419438273</v>
+        <v>-12.00525165061664</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.765699319942357</v>
+        <v>-2.747108249907106</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.144871869249344</v>
+        <v>-5.159142479346825</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3805145908396517</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.40502511788875</v>
+        <v>-12.50482774245123</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.646074948877506</v>
+        <v>-2.625664048747255</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.704394432442312</v>
+        <v>-4.717565289101088</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5047588753197937</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.38257500186907</v>
+        <v>-13.47782150504263</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.39162604314856</v>
+        <v>-2.373283726867302</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.621114294066092</v>
+        <v>-4.627987753057998</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.7741313414990534</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.1290064637844</v>
+        <v>-14.22073113749353</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.367483836708417</v>
+        <v>-2.351759980995504</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.253102753488014</v>
+        <v>-4.247499247871755</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.135381263278288</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.82707495900239</v>
+        <v>-14.91801409454102</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.190593733013856</v>
+        <v>-2.176074369162382</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.038428263792231</v>
+        <v>-4.036464418365973</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.526753912285072</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.49052740550686</v>
+        <v>-15.57744720407308</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.175013892632202</v>
+        <v>-2.165482696163425</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.520444394162181</v>
+        <v>-3.518467456433081</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.889831053881895</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.4617144303061</v>
+        <v>-16.5476261215535</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.01078404578559</v>
+        <v>-1.997717927549548</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.880427169744403</v>
+        <v>-2.880165323687568</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.177804730179567</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.10403590002402</v>
+        <v>-17.18245879404596</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.728343796581034</v>
+        <v>-1.7209597377783</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.517429981154706</v>
+        <v>-2.509587691752512</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.357397275749201</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.01018036430557</v>
+        <v>-18.08476721359488</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.56038264342453</v>
+        <v>-1.555551583675933</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.921376709679443</v>
+        <v>-1.918391664631529</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.412141251421781</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92711288612869</v>
+        <v>-18.99706506021203</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.393259397649897</v>
+        <v>-1.393914012791983</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.569979301407515</v>
+        <v>-1.549738601214207</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.347475794463233</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.71758685480359</v>
+        <v>-19.78414812245092</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.147569242522065</v>
+        <v>-1.154023747823036</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.041089543510307</v>
+        <v>-1.018466044199805</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.189043491619069</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.70380384326513</v>
+        <v>-20.76664689690541</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.050070863259731</v>
+        <v>-1.057965521873292</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6809202923344232</v>
+        <v>-0.6598285924564025</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.975121411068959</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.54486647012045</v>
+        <v>-21.607604785338</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8991427961003132</v>
+        <v>-0.9093417000140179</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.311573336866489</v>
+        <v>-0.2843544392585405</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.7503259311932</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.19438870640132</v>
+        <v>-22.25871119026272</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6425729373110075</v>
+        <v>-0.6585979159892802</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06426740081094119</v>
+        <v>0.0827013632120915</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.558964508133426</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.82440341144802</v>
+        <v>-22.88430069694892</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3412274028029986</v>
+        <v>-0.359464980661523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3810487603693452</v>
+        <v>0.4044839824560348</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.434458659173492</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.45481088557998</v>
+        <v>-23.51452487884109</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07043930312757833</v>
+        <v>-0.09595620136610243</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3450972967659653</v>
+        <v>0.3730886402415757</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.398052410484967</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.96499174271636</v>
+        <v>-24.02086969124484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0441838082517334</v>
+        <v>0.01651977234716622</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6049926004770695</v>
+        <v>0.6416379561310608</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.457740937237733</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.35027203074267</v>
+        <v>-24.40431705687332</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260509688159428</v>
+        <v>-0.001979651568192716</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5360616260153818</v>
+        <v>0.5693422598390494</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.605475558597762</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.6220027762227</v>
+        <v>-24.67284018815712</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3137674160657149</v>
+        <v>0.2868758260288095</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525679429861893</v>
+        <v>0.5584232792690499</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.824448626203963</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63815867792939</v>
+        <v>-24.68324856891629</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3269906419358582</v>
+        <v>0.3016963128456434</v>
       </c>
       <c r="G26" t="n">
-        <v>0.365809319861576</v>
+        <v>0.4022713832757831</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.090216270164461</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61541734789331</v>
+        <v>-24.65223290348424</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1452694784927004</v>
+        <v>0.1192288881405072</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3415492826958576</v>
+        <v>0.3770294233969352</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.371584843720302</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.7283384599032</v>
+        <v>-24.76104303240183</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2611494509448178</v>
+        <v>0.2383033824860058</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05416014301712867</v>
+        <v>0.08943080687273869</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.639925489978711</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.77382111997535</v>
+        <v>-24.80289912458683</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2076804861392085</v>
+        <v>0.1934360606474106</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0406935910711767</v>
+        <v>-0.01073840216930746</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.869005903390176</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54703625015097</v>
+        <v>-24.57548582422605</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08314650150871018</v>
+        <v>0.06270941677277579</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2355594265674275</v>
+        <v>-0.2072800524292992</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.036918193544799</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07520274803801</v>
+        <v>-24.10801205895937</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08154924056201959</v>
+        <v>0.06400555475410667</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6956622253342067</v>
+        <v>-0.671847326465107</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.131983372654061</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15983139360693</v>
+        <v>-24.18794056780811</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1450861862529162</v>
+        <v>0.1285506077638162</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7512259585944921</v>
+        <v>-0.7374659483078381</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.150825909422438</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73744751932716</v>
+        <v>-23.76715395447503</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0595018025765529</v>
+        <v>0.04684154572860379</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.213580633450048</v>
+        <v>-1.201719007075444</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.097147792827252</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.17518548148639</v>
+        <v>-23.20226036376308</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09671555493092254</v>
+        <v>-0.1048065980871093</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.286229821918786</v>
+        <v>-1.279173070687096</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.983267165967586</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.83312288514061</v>
+        <v>-22.85634863038183</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2882952224139001</v>
+        <v>-0.2982846494821371</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.308146336875836</v>
+        <v>-1.303812784635224</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.824670640880476</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.1072463386868</v>
+        <v>-22.1301840532655</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4198728659732471</v>
+        <v>-0.4250836025042541</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.510867554077122</v>
+        <v>-1.511404338493633</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.635587398714428</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.29537954716852</v>
+        <v>-21.32579296666985</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3558645973800483</v>
+        <v>-0.3598446574439331</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.638517506783951</v>
+        <v>-1.629287433280534</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.429744460627237</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91972210173087</v>
+        <v>-20.94891793706793</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4107344385897223</v>
+        <v>-0.4195717430078874</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.887886599010308</v>
+        <v>-1.878054279576171</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.216121101482587</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.26582703630087</v>
+        <v>-20.29343870299407</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2629092472037933</v>
+        <v>-0.2700969214639009</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.039783496580013</v>
+        <v>-2.032438714685805</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.998478735060206</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96135244141368</v>
+        <v>-19.98051957277397</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5440533584270189</v>
+        <v>-0.5510315558416589</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.265036566971911</v>
+        <v>-2.254510355487163</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.779879604768935</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42589034748993</v>
+        <v>-19.45211423008191</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2665489073937931</v>
+        <v>-0.2744435660073539</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.106030548959148</v>
+        <v>-2.104472564920982</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.561001666333966</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86953293823078</v>
+        <v>-18.8946701596869</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.007111834282149334</v>
+        <v>-0.02092421378017034</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.077790451729544</v>
+        <v>-2.085750571857314</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.341930362716866</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9662949651801</v>
+        <v>-17.99729753830931</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01676086147650145</v>
+        <v>-0.02949967214150091</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.967959123190304</v>
+        <v>-1.981234718271815</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.126243851688619</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.63195682751094</v>
+        <v>-17.66158470884177</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03054162869065484</v>
+        <v>0.02107589373608689</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.170195925186447</v>
+        <v>-2.186142350047669</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.9173785470792388</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.12177597037456</v>
+        <v>-17.14954474470186</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000311501429109346</v>
+        <v>-0.01080386368351609</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.211449771440726</v>
+        <v>-2.228155549866768</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.7191143697321211</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.744953309984</v>
+        <v>-16.77138666942145</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01844434086489995</v>
+        <v>0.008062144711411178</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.150282532564181</v>
+        <v>-2.173298800959936</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.5375583901910006</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.07432628152226</v>
+        <v>-16.10439930114971</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02504286149712989</v>
+        <v>0.01987140187464809</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.441429163158486</v>
+        <v>-2.469053922154528</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.377712828862195</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.42396613785952</v>
+        <v>-15.44856657489913</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.005553850243983933</v>
+        <v>-0.008093756995278791</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.37554869525892</v>
+        <v>-2.405412238040897</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2437778159799405</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88714244444023</v>
+        <v>-14.91632518747444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1462252166001464</v>
+        <v>0.1391815576712978</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.556575966651466</v>
+        <v>-2.596415844198839</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.140845751750773</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18758142669828</v>
+        <v>-14.21748424638878</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2914581320234136</v>
+        <v>0.2830921505075507</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.467482845813521</v>
+        <v>-2.522758548411288</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.07250236392909581</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.4220875718454</v>
+        <v>-13.44342802547741</v>
       </c>
       <c r="F51" t="n">
-        <v>0.287569718079421</v>
+        <v>0.2806177052704645</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.534070298066539</v>
+        <v>-2.596978813221033</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0405027213052612</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83506798933093</v>
+        <v>-12.85296516731557</v>
       </c>
       <c r="F52" t="n">
-        <v>0.371687763837511</v>
+        <v>0.3619078136147416</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.545447509235999</v>
+        <v>-2.610332962119594</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04681280644554738</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18343789229254</v>
+        <v>-12.19956760939354</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4215694376644873</v>
+        <v>0.4135831329310344</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.564588455990603</v>
+        <v>-2.632445861619269</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09140515598344769</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80586897064</v>
+        <v>-11.82672500906687</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3114500784627294</v>
+        <v>0.3014868360001758</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.67015169380344</v>
+        <v>-2.74137382126243</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1726764721879439</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35159224663779</v>
+        <v>-11.36871697875477</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06272250907561751</v>
+        <v>0.05448745058817182</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.135164106135867</v>
+        <v>-3.213442984826547</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2901476910674219</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90458175071273</v>
+        <v>-10.92711360390335</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1544340904819086</v>
+        <v>0.1422975257476286</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.205155557127734</v>
+        <v>-3.285647034998666</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4418936289881435</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14850126160305</v>
+        <v>-10.1696322383896</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09005923740914154</v>
+        <v>0.07941519519881825</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.571465098336388</v>
+        <v>-3.648735869708255</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.6239891601829942</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.847312834729145</v>
+        <v>-9.866859642871843</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08519432843020361</v>
+        <v>-0.09445058653930394</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.604444609194696</v>
+        <v>-3.682788949399585</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.8346882978507926</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.302332636639456</v>
+        <v>-9.321251014245751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.005666253291375308</v>
+        <v>-0.007766449424235638</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.890171026412526</v>
+        <v>-3.965517229266659</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.072064233139073</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.936664618270047</v>
+        <v>-8.955910303447384</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1307031731080434</v>
+        <v>-0.1433241530474673</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.801667059202457</v>
+        <v>-3.877013262056591</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.331351434927802</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.408416383212083</v>
+        <v>-8.420736240186148</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1558273022613157</v>
+        <v>-0.1655548832727182</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.204019710134383</v>
+        <v>-4.279863420496502</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.607730208039822</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.897122680334156</v>
+        <v>-7.915320981284155</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09856156963160592</v>
+        <v>-0.1109207035141953</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.160199772523126</v>
+        <v>-4.238413189699597</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.894294783401603</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.414540397588133</v>
+        <v>-7.436692573996333</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1558534868669992</v>
+        <v>-0.1634339302123586</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.163158632965356</v>
+        <v>-4.240651973485533</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.182099227541486</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.060773282501853</v>
+        <v>-7.076065092220989</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3139299513779997</v>
+        <v>-0.3212878255750498</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.411833833141101</v>
+        <v>-4.485975544133796</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.463435717398494</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.688061605203595</v>
+        <v>-6.707569136437767</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.259099387076851</v>
+        <v>-0.2674522762898722</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.696971096731053</v>
+        <v>-4.769777392833891</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.728353831164223</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.438692512977239</v>
+        <v>-6.457938198154576</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3767075435040763</v>
+        <v>-0.3833453410448314</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.691577067960262</v>
+        <v>-4.761450688226554</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.96486579964195</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.274554312250519</v>
+        <v>-6.293014459257352</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4325462151240379</v>
+        <v>-0.4395505971443613</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.808072378645941</v>
+        <v>-4.873520800551729</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.163132419639687</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.998188891564523</v>
+        <v>-6.015064869927508</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4007842884300105</v>
+        <v>-0.4043846717114851</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.805178979717919</v>
+        <v>-4.868440987049139</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.313139342434447</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.864267725796507</v>
+        <v>-5.879192951036075</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6581396853898198</v>
+        <v>-0.6613472995860427</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.906513403712879</v>
+        <v>-4.965756074071689</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.406029120967971</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.62634130625382</v>
+        <v>-5.647668667582991</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6022355522556495</v>
+        <v>-0.6087293344651457</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.774281145011446</v>
+        <v>-4.82938664767227</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.438197796673941</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.504163936134832</v>
+        <v>-5.523763113488895</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7019465306982352</v>
+        <v>-0.7032688532852496</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.751421984249792</v>
+        <v>-4.803228226594501</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.409419601809581</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.481579713732854</v>
+        <v>-5.505028028122386</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7951244500227996</v>
+        <v>-0.7963682187927636</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.652129959498141</v>
+        <v>-4.698673096100477</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.323537085189886</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.516012470206594</v>
+        <v>-5.544160921316305</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8542361973531929</v>
+        <v>-0.8519188597502073</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.465708659334804</v>
+        <v>-4.510091565968255</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.189329984259617</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.752577290253742</v>
+        <v>-5.780594818335036</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7461985143032693</v>
+        <v>-0.7453606069213988</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.351740163097578</v>
+        <v>-4.4004435296688</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.015738587033831</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.954041646382223</v>
+        <v>-5.978511160393409</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.077093376325054</v>
+        <v>-1.071660070645738</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.187052085651506</v>
+        <v>-4.236396975061972</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.812975656341275</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.482289881440186</v>
+        <v>-6.505279965230257</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9887988859604534</v>
+        <v>-0.985329425707396</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.019378963157521</v>
+        <v>-4.06974505218964</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.593072982661052</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.948624616359627</v>
+        <v>-6.97170634626959</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.047596418022645</v>
+        <v>-1.042359496885955</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.941414299735042</v>
+        <v>-3.992853957600183</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.365519613490766</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.524672849092733</v>
+        <v>-7.551119300833019</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.140001891479548</v>
+        <v>-1.130130295136886</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.53696688034844</v>
+        <v>-3.594939597331603</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.139183721663558</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.949989399209046</v>
+        <v>-7.975820512715771</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.105529858097283</v>
+        <v>-1.092908878157859</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.328720711347945</v>
+        <v>-3.392126734010424</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.923822430490518</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.42234659343568</v>
+        <v>-8.447077953503701</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.290602651067923</v>
+        <v>-1.280665593211053</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.960905555312493</v>
+        <v>-3.025437516019361</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.725906812126824</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.364193767566611</v>
+        <v>-9.38813958946413</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.213567541147206</v>
+        <v>-1.201941576223754</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.937404871711594</v>
+        <v>-3.007959291725656</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.551172880388139</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.1909988766273</v>
+        <v>-10.2093542852114</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.306745460471771</v>
+        <v>-1.293941188292563</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.762963028648436</v>
+        <v>-2.833412710239764</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.406089463466568</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02582956732996</v>
+        <v>-11.04322923780661</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.417165942638889</v>
+        <v>-1.400381610395796</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.387619798478992</v>
+        <v>-2.459195418114708</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.293413312323992</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2424449012002</v>
+        <v>-12.25443745060322</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.491556407385576</v>
+        <v>-1.477573827950613</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.283732375429895</v>
+        <v>-2.353566718787662</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.215616899147305</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13120278730793</v>
+        <v>-13.1394771227039</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.590377109234925</v>
+        <v>-1.572885792638379</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.938985857001565</v>
+        <v>-2.013323952536885</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.175531239960341</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32375446855507</v>
+        <v>-14.32367591473802</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.801935630854376</v>
+        <v>-1.778932454761463</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.695573762568193</v>
+        <v>-1.763090768322975</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.171416135019267</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42714756745006</v>
+        <v>-15.42151787722812</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.842652692692144</v>
+        <v>-1.820003008775958</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.279592024378031</v>
+        <v>-1.349648936884107</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.199914338856486</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84423224243281</v>
+        <v>-16.83361438482817</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.867685175725524</v>
+        <v>-1.839955678306749</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9740176760521446</v>
+        <v>-1.039858867043185</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.257296394342475</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53872972232889</v>
+        <v>-18.51456133128306</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.093723784287925</v>
+        <v>-2.066832194251019</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7659809838971174</v>
+        <v>-0.8348203122389131</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.335274469300161</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15306303192508</v>
+        <v>-20.12763777980645</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.316816624710937</v>
+        <v>-2.290946234295686</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4774920907796835</v>
+        <v>-0.5423382667547527</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.42483097815908</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98069613941867</v>
+        <v>-21.95176215013846</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.527785992702511</v>
+        <v>-2.497778434589275</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6424289219797485</v>
+        <v>-0.6970892863439548</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.519747807345739</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70414070089781</v>
+        <v>-23.67016617502353</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.630809323764054</v>
+        <v>-2.598484428047832</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.463561880556087</v>
+        <v>-0.5187983062453293</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.613710249573281</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78414103796851</v>
+        <v>-25.74716837474348</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.80447872095955</v>
+        <v>-2.777848976979479</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4597651127319864</v>
+        <v>-0.5103406786095742</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.70267582990091</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05328587419363</v>
+        <v>-28.01194038181946</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.676933506675454</v>
+        <v>-2.648889793988477</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5944456320648225</v>
+        <v>-0.6473647201510793</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.786320007693336</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.33325804486886</v>
+        <v>-30.29183399867764</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.165066925826369</v>
+        <v>-3.139026335474176</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9805376428673243</v>
+        <v>-1.022105704389805</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.868886052015051</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51727672801708</v>
+        <v>-32.47369245185697</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.22446670381928</v>
+        <v>-3.200088835927986</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.206170390041631</v>
+        <v>-1.247843189986845</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.950579684514523</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74188154997464</v>
+        <v>-34.69912208889357</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.601577394872358</v>
+        <v>-3.567786161237863</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.441177226050614</v>
+        <v>-1.476526443723275</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.050626095790047</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24539169936951</v>
+        <v>-37.20357488409303</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.846220165772851</v>
+        <v>-3.815571084820371</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.872058004874661</v>
+        <v>-1.900429025132681</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.16684817216666</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.77939382208275</v>
+        <v>-39.73307325462871</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.740264158874762</v>
+        <v>-3.711277800383181</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.351118458156259</v>
+        <v>-2.37600692585838</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.332416670261023</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.34557682518094</v>
+        <v>-42.30413968668688</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.922980337333891</v>
+        <v>-3.896939746981698</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.714456046619841</v>
+        <v>-2.730886886686207</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.528861042356406</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.58853705572261</v>
+        <v>-44.55863423603211</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.162739679274421</v>
+        <v>-4.133648582360105</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.323693267056722</v>
+        <v>-3.334743170655139</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.823356516640677</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89148621788507</v>
+        <v>-46.86760585750176</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.306113487694163</v>
+        <v>-4.275713160495675</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.599901580108617</v>
+        <v>-3.609354222760343</v>
       </c>
     </row>
   </sheetData>
